--- a/biology/Zoologie/Alytes_muletensis/Alytes_muletensis.xlsx
+++ b/biology/Zoologie/Alytes_muletensis/Alytes_muletensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alytes muletensis, l’Alyte de Majorque est une espèce d'amphibiens de la famille des Alytidae[1]. Décrite sous le nom Baleaphryne muletensis comme fossile, elle n'a été découverte vivante que plus tard.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alytes muletensis, l’Alyte de Majorque est une espèce d'amphibiens de la famille des Alytidae. Décrite sous le nom Baleaphryne muletensis comme fossile, elle n'a été découverte vivante que plus tard.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Majorque aux Baléares. Elle se rencontre dans la Sierra de Tramontana du niveau de la mer à 850 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Majorque aux Baléares. Elle se rencontre dans la Sierra de Tramontana du niveau de la mer à 850 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de mulet[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, la Cueva Muleta.
 </t>
@@ -573,9 +589,11 @@
           <t>Honneur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis le 15 janvier 2024, l'astéroïde (201511) Ferreret est nommé en son honneur[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis le 15 janvier 2024, l'astéroïde (201511) Ferreret est nommé en son honneur.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sanchiz &amp; Adrover, 1979 "1977" : Anfibios fósiles del Pleistoceno de Mallorca. Doñana Acta Vertebrata, vol. 4, p. 5-25.</t>
         </is>
